--- a/PostDB.xlsx
+++ b/PostDB.xlsx
@@ -1,31 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="PostDB" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+  <si>
+    <t>ID:</t>
+  </si>
+  <si>
+    <t>Status:</t>
+  </si>
+  <si>
+    <t>Post:</t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>Cannabis is one of the oldest cultivated crops in the world with a history dating back thousands of years.</t>
+  </si>
+  <si>
+    <t>There are three primary species of cannabis: Cannabis sativa Cannabis indica and Cannabis ruderalis. Different strains have varying effects on users.</t>
+  </si>
+  <si>
+    <t>The active compounds in cannabis responsible for its effects are called cannabinoids. The most well-known cannabinoid is delta-9-tetrahydrocannabinol (THC), which is responsible for the plant's psychoactive properties.</t>
+  </si>
+  <si>
+    <t>Another important cannabinoid is cannabidiol (CBD), which does not produce a "high" but has potential medical benefits, such as pain relief and anti-anxiety effects.</t>
+  </si>
+  <si>
+    <t>Cannabis has been used for medicinal purposes for centuries, with historical records suggesting it was used in ancient China, India, and Egypt.</t>
+  </si>
+  <si>
+    <t>The Netherlands was one of the first countries to decriminalize the possession and sale of small quantities of cannabis for personal use in the 1970s. It is often associated with the famous Dutch "coffee shops."</t>
+  </si>
+  <si>
+    <t>In the United States, cannabis is classified as a Schedule I controlled substance at the federal level, but many states have legalized it for medical and recreational use.</t>
+  </si>
+  <si>
+    <t>The term "420" is a slang term that originated in the 1970s and is often associated with cannabis culture. It is used to refer to the consumption or celebration of cannabis, especially on April 20th (4/20).</t>
+  </si>
+  <si>
+    <t>Cannabis plants can be male or female, with the female plants producing the flowers (buds) that are typically harvested for their psychoactive and medicinal properties.</t>
+  </si>
+  <si>
+    <t>Cannabis consumption methods include smoking, vaping, edibles, tinctures, and topicals, offering a variety of options for users to choose from.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -34,151 +77,85 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -319,24 +296,267 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="168.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>31.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PostDB.xlsx
+++ b/PostDB.xlsx
@@ -1,80 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="PostDB" sheetId="1" r:id="rId4"/>
+    <sheet name="PostDB" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
-  <si>
-    <t>ID:</t>
-  </si>
-  <si>
-    <t>Status:</t>
-  </si>
-  <si>
-    <t>Post:</t>
-  </si>
-  <si>
-    <t>Ready</t>
-  </si>
-  <si>
-    <t>Cannabis is one of the oldest cultivated crops in the world with a history dating back thousands of years.</t>
-  </si>
-  <si>
-    <t>There are three primary species of cannabis: Cannabis sativa Cannabis indica and Cannabis ruderalis. Different strains have varying effects on users.</t>
-  </si>
-  <si>
-    <t>The active compounds in cannabis responsible for its effects are called cannabinoids. The most well-known cannabinoid is delta-9-tetrahydrocannabinol (THC), which is responsible for the plant's psychoactive properties.</t>
-  </si>
-  <si>
-    <t>Another important cannabinoid is cannabidiol (CBD), which does not produce a "high" but has potential medical benefits, such as pain relief and anti-anxiety effects.</t>
-  </si>
-  <si>
-    <t>Cannabis has been used for medicinal purposes for centuries, with historical records suggesting it was used in ancient China, India, and Egypt.</t>
-  </si>
-  <si>
-    <t>The Netherlands was one of the first countries to decriminalize the possession and sale of small quantities of cannabis for personal use in the 1970s. It is often associated with the famous Dutch "coffee shops."</t>
-  </si>
-  <si>
-    <t>In the United States, cannabis is classified as a Schedule I controlled substance at the federal level, but many states have legalized it for medical and recreational use.</t>
-  </si>
-  <si>
-    <t>The term "420" is a slang term that originated in the 1970s and is often associated with cannabis culture. It is used to refer to the consumption or celebration of cannabis, especially on April 20th (4/20).</t>
-  </si>
-  <si>
-    <t>Cannabis plants can be male or female, with the female plants producing the flowers (buds) that are typically harvested for their psychoactive and medicinal properties.</t>
-  </si>
-  <si>
-    <t>Cannabis consumption methods include smoking, vaping, edibles, tinctures, and topicals, offering a variety of options for users to choose from.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
       <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
@@ -84,25 +38,87 @@
     <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -300,263 +316,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="168.0"/>
+    <col width="168" customWidth="1" style="2" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID:</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Status:</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Post:</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Ready</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Cannabis is one of the oldest cultivated crops in the world with a history dating back thousands of years.</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Ready</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>There are three primary species of cannabis: Cannabis sativa Cannabis indica and Cannabis ruderalis. Different strains have varying effects on users.</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Ready</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>The active compounds in cannabis responsible for its effects are called cannabinoids. The most well-known cannabinoid is delta-9-tetrahydrocannabinol (THC), which is responsible for the plant's psychoactive properties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Ready</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Another important cannabinoid is cannabidiol (CBD), which does not produce a "high" but has potential medical benefits, such as pain relief and anti-anxiety effects.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Ready</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>Cannabis has been used for medicinal purposes for centuries, with historical records suggesting it was used in ancient China, India, and Egypt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Ready</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>The Netherlands was one of the first countries to decriminalize the possession and sale of small quantities of cannabis for personal use in the 1970s. It is often associated with the famous Dutch "coffee shops."</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Ready</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>In the United States, cannabis is classified as a Schedule I controlled substance at the federal level, but many states have legalized it for medical and recreational use.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Ready</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>The term "420" is a slang term that originated in the 1970s and is often associated with cannabis culture. It is used to refer to the consumption or celebration of cannabis, especially on April 20th (4/20).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Ready</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>Cannabis plants can be male or female, with the female plants producing the flowers (buds) that are typically harvested for their psychoactive and medicinal properties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Ready</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>Cannabis consumption methods include smoking, vaping, edibles, tinctures, and topicals, offering a variety of options for users to choose from.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Ready</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Ready</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Ready</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Ready</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Ready</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
-        <v>16.0</v>
+      <c r="A17" s="1" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <v>17.0</v>
+      <c r="A18" s="1" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
-        <v>18.0</v>
+      <c r="A19" s="1" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
-        <v>19.0</v>
+      <c r="A20" s="1" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
-        <v>20.0</v>
+      <c r="A21" s="1" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
-        <v>21.0</v>
+      <c r="A22" s="1" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
-        <v>22.0</v>
+      <c r="A23" s="1" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1">
-        <v>23.0</v>
+      <c r="A24" s="1" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
-        <v>24.0</v>
+      <c r="A25" s="1" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
-        <v>25.0</v>
+      <c r="A26" s="1" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
-        <v>26.0</v>
+      <c r="A27" s="1" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
-        <v>27.0</v>
+      <c r="A28" s="1" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
-        <v>28.0</v>
+      <c r="A29" s="1" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1">
-        <v>29.0</v>
+      <c r="A30" s="1" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
-        <v>30.0</v>
+      <c r="A31" s="1" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1">
-        <v>31.0</v>
+      <c r="A32" s="1" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>